--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H2">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I2">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J2">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N2">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O2">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P2">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q2">
-        <v>9373.985256698214</v>
+        <v>39117.31664740769</v>
       </c>
       <c r="R2">
-        <v>84365.86731028392</v>
+        <v>352055.8498266692</v>
       </c>
       <c r="S2">
-        <v>0.2311886616690939</v>
+        <v>0.3854958269248347</v>
       </c>
       <c r="T2">
-        <v>0.2311886616690938</v>
+        <v>0.3854958269248347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H3">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I3">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J3">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.595114</v>
       </c>
       <c r="O3">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P3">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q3">
-        <v>2136.601708615744</v>
+        <v>5393.971045369034</v>
       </c>
       <c r="R3">
-        <v>19229.4153775417</v>
+        <v>48545.73940832131</v>
       </c>
       <c r="S3">
-        <v>0.05269456650593873</v>
+        <v>0.05315684987510385</v>
       </c>
       <c r="T3">
-        <v>0.05269456650593872</v>
+        <v>0.05315684987510385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H4">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I4">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J4">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N4">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O4">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P4">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q4">
-        <v>5735.729051010293</v>
+        <v>19169.08407026075</v>
       </c>
       <c r="R4">
-        <v>51621.56145909265</v>
+        <v>172521.7566323467</v>
       </c>
       <c r="S4">
-        <v>0.1414591005519331</v>
+        <v>0.1889087122632824</v>
       </c>
       <c r="T4">
-        <v>0.1414591005519331</v>
+        <v>0.1889087122632824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>216.5832213333333</v>
+        <v>546.7765096666667</v>
       </c>
       <c r="H5">
-        <v>649.7496640000001</v>
+        <v>1640.329529</v>
       </c>
       <c r="I5">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="J5">
-        <v>0.4331411212367192</v>
+        <v>0.6285526459909564</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N5">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O5">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P5">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q5">
-        <v>316.2169177272</v>
+        <v>100.5855534947897</v>
       </c>
       <c r="R5">
-        <v>2845.9522595448</v>
+        <v>905.2699814531071</v>
       </c>
       <c r="S5">
-        <v>0.007798792509753453</v>
+        <v>0.0009912569277355017</v>
       </c>
       <c r="T5">
-        <v>0.007798792509753453</v>
+        <v>0.0009912569277355017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>485.864922</v>
       </c>
       <c r="I6">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J6">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N6">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O6">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P6">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q6">
-        <v>7009.608265953374</v>
+        <v>11586.53286777601</v>
       </c>
       <c r="R6">
-        <v>63086.47439358036</v>
+        <v>104278.7958099841</v>
       </c>
       <c r="S6">
-        <v>0.1728765204396299</v>
+        <v>0.1141837030723601</v>
       </c>
       <c r="T6">
-        <v>0.1728765204396299</v>
+        <v>0.1141837030723601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>485.864922</v>
       </c>
       <c r="I7">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J7">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.595114</v>
       </c>
       <c r="O7">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P7">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q7">
         <v>1597.691972799012</v>
@@ -883,10 +883,10 @@
         <v>14379.22775519111</v>
       </c>
       <c r="S7">
-        <v>0.03940354703320283</v>
+        <v>0.01574503675129111</v>
       </c>
       <c r="T7">
-        <v>0.03940354703320282</v>
+        <v>0.01574503675129111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>485.864922</v>
       </c>
       <c r="I8">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J8">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N8">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O8">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P8">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q8">
-        <v>4289.020375672329</v>
+        <v>5677.874702582813</v>
       </c>
       <c r="R8">
-        <v>38601.18338105097</v>
+        <v>51100.87232324532</v>
       </c>
       <c r="S8">
-        <v>0.1057792233900334</v>
+        <v>0.05595468174304879</v>
       </c>
       <c r="T8">
-        <v>0.1057792233900334</v>
+        <v>0.05595468174304879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>485.864922</v>
       </c>
       <c r="I9">
-        <v>0.3238910133313607</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="J9">
-        <v>0.3238910133313606</v>
+        <v>0.1861770314550556</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N9">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O9">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P9">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q9">
-        <v>236.45831091435</v>
+        <v>29.793398972014</v>
       </c>
       <c r="R9">
-        <v>2128.12479822915</v>
+        <v>268.140590748126</v>
       </c>
       <c r="S9">
-        <v>0.00583172246849449</v>
+        <v>0.0002936098883556519</v>
       </c>
       <c r="T9">
-        <v>0.00583172246849449</v>
+        <v>0.0002936098883556519</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H10">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I10">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J10">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N10">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O10">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P10">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q10">
-        <v>5238.335625211377</v>
+        <v>11491.77654059723</v>
       </c>
       <c r="R10">
-        <v>47145.02062690239</v>
+        <v>103425.9888653751</v>
       </c>
       <c r="S10">
-        <v>0.1291919892556689</v>
+        <v>0.1132498923759006</v>
       </c>
       <c r="T10">
-        <v>0.1291919892556689</v>
+        <v>0.1132498923759006</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H11">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I11">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J11">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.595114</v>
       </c>
       <c r="O11">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P11">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q11">
-        <v>1193.967831252124</v>
+        <v>1584.625818753354</v>
       </c>
       <c r="R11">
-        <v>10745.71048126912</v>
+        <v>14261.63236878019</v>
       </c>
       <c r="S11">
-        <v>0.02944658194185761</v>
+        <v>0.01561627158306754</v>
       </c>
       <c r="T11">
-        <v>0.0294465819418576</v>
+        <v>0.01561627158306754</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H12">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I12">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J12">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N12">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O12">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P12">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q12">
-        <v>3205.218805203243</v>
+        <v>5631.440229117994</v>
       </c>
       <c r="R12">
-        <v>28846.96924682919</v>
+        <v>50682.96206206194</v>
       </c>
       <c r="S12">
-        <v>0.07904964917691314</v>
+        <v>0.0554970763324454</v>
       </c>
       <c r="T12">
-        <v>0.07904964917691314</v>
+        <v>0.0554970763324454</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>121.0302313333333</v>
+        <v>160.630483</v>
       </c>
       <c r="H13">
-        <v>363.090694</v>
+        <v>481.891449</v>
       </c>
       <c r="I13">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="J13">
-        <v>0.2420463126392298</v>
+        <v>0.1846544489960017</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N13">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O13">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P13">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q13">
-        <v>176.70716350245</v>
+        <v>29.549744283163</v>
       </c>
       <c r="R13">
-        <v>1590.36447152205</v>
+        <v>265.947698548467</v>
       </c>
       <c r="S13">
-        <v>0.004358092264790125</v>
+        <v>0.0002912087045881311</v>
       </c>
       <c r="T13">
-        <v>0.004358092264790126</v>
+        <v>0.0002912087045881311</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H14">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I14">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J14">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N14">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O14">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P14">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q14">
-        <v>19.94412875712111</v>
+        <v>38.32824686392401</v>
       </c>
       <c r="R14">
-        <v>179.4971588140899</v>
+        <v>344.954221775316</v>
       </c>
       <c r="S14">
-        <v>0.0004918779269703046</v>
+        <v>0.0003777196516971915</v>
       </c>
       <c r="T14">
-        <v>0.0004918779269703046</v>
+        <v>0.0003777196516971915</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H15">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I15">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J15">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.595114</v>
       </c>
       <c r="O15">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P15">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q15">
-        <v>4.545842393859999</v>
+        <v>5.285164513386001</v>
       </c>
       <c r="R15">
-        <v>40.91258154473999</v>
+        <v>47.566480620474</v>
       </c>
       <c r="S15">
-        <v>0.000112113171763756</v>
+        <v>5.208457632424404E-05</v>
       </c>
       <c r="T15">
-        <v>0.000112113171763756</v>
+        <v>5.208457632424404E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H16">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I16">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J16">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N16">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O16">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P16">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q16">
-        <v>12.20336021198333</v>
+        <v>18.78240762327334</v>
       </c>
       <c r="R16">
-        <v>109.83024190785</v>
+        <v>169.04166860946</v>
       </c>
       <c r="S16">
-        <v>0.0003009689516268805</v>
+        <v>0.0001850980685520234</v>
       </c>
       <c r="T16">
-        <v>0.0003009689516268805</v>
+        <v>0.0001850980685520234</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4608033333333333</v>
+        <v>0.5357470000000001</v>
       </c>
       <c r="H17">
-        <v>1.38241</v>
+        <v>1.607241</v>
       </c>
       <c r="I17">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="J17">
-        <v>0.0009215527926904059</v>
+        <v>0.0006158735579862568</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N17">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O17">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P17">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q17">
-        <v>0.6727843867499999</v>
+        <v>0.09855655386700002</v>
       </c>
       <c r="R17">
-        <v>6.055059480749999</v>
+        <v>0.8870089848030001</v>
       </c>
       <c r="S17">
-        <v>1.65927423294647E-05</v>
+        <v>9.712614127978279E-07</v>
       </c>
       <c r="T17">
-        <v>1.659274232946471E-05</v>
+        <v>9.712614127978279E-07</v>
       </c>
     </row>
   </sheetData>
